--- a/doc/17salsa.xlsx
+++ b/doc/17salsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="0" windowWidth="25600" windowHeight="13900" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>用户签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,13 +654,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,12 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1394,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1453,7 +1457,7 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1467,7 +1471,7 @@
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="7"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
@@ -1479,7 +1483,7 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1493,7 +1497,7 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="7"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
@@ -1505,7 +1509,7 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1519,7 +1523,7 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="7"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
@@ -1565,21 +1569,21 @@
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="5">
-        <v>5.29</v>
+      <c r="D41" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="9"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>31</v>
       </c>
@@ -1591,7 +1595,7 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="7"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
@@ -1637,11 +1641,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -1662,7 +1666,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1671,7 +1675,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1680,16 +1684,16 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2"/>
@@ -1698,7 +1702,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2"/>
@@ -1707,7 +1711,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2"/>
@@ -1716,7 +1720,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1727,58 +1731,58 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="34">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -1802,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1815,11 +1819,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="2"/>
@@ -1849,7 +1853,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="2"/>
@@ -1858,16 +1862,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2"/>
@@ -1876,7 +1880,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="2"/>
@@ -1885,7 +1889,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1896,59 +1900,59 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -1985,11 +1989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -2010,7 +2014,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="2"/>
@@ -2019,7 +2023,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="2"/>
@@ -2028,16 +2032,16 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
@@ -2046,7 +2050,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="2"/>
@@ -2055,62 +2059,62 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -2147,11 +2151,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -2172,7 +2176,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="2"/>
@@ -2181,7 +2185,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="2"/>
@@ -2190,16 +2194,16 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="2"/>
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="2"/>
@@ -2217,66 +2221,66 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="102">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -2313,11 +2317,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -2338,7 +2342,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="2"/>
@@ -2347,7 +2351,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="2"/>
@@ -2356,16 +2360,16 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="2"/>
@@ -2374,7 +2378,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="2"/>
@@ -2383,7 +2387,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="2"/>
@@ -2392,57 +2396,57 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -2479,11 +2483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -2504,7 +2508,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2513,7 +2517,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2522,16 +2526,16 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2"/>
@@ -2540,7 +2544,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2"/>
@@ -2549,7 +2553,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2"/>
@@ -2558,7 +2562,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2569,58 +2573,58 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="34">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
@@ -2656,11 +2660,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="15" t="s">
@@ -2681,7 +2685,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2690,7 +2694,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2699,16 +2703,16 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2"/>
@@ -2717,7 +2721,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2"/>
@@ -2726,7 +2730,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2"/>
@@ -2735,7 +2739,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2746,58 +2750,58 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="34">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
